--- a/medicine/Mort/Cimetière_militaire_allemand_de_Vladslo/Cimetière_militaire_allemand_de_Vladslo.xlsx
+++ b/medicine/Mort/Cimetière_militaire_allemand_de_Vladslo/Cimetière_militaire_allemand_de_Vladslo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_de_Vladslo</t>
+          <t>Cimetière_militaire_allemand_de_Vladslo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire allemand de Vladslo est situé à environ trois kilomètres au nord-est de Vladslo, près de Dixmude, en Belgique. Créé pendant la Première Guerre mondiale, il abrite 3 233 sépultures de guerre. En 1956 on y a concentré les sépultures de nombreux petits cimetières des environs, et on y trouve à présent les restes de 25 644 soldats. Chaque pierre porte les noms de vingt soldats, avec seulement leur grade et les dates de leur mort. L'artiste Willem Vermandere a évoqué ce cimetière dans son poème Vladslo[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire allemand de Vladslo est situé à environ trois kilomètres au nord-est de Vladslo, près de Dixmude, en Belgique. Créé pendant la Première Guerre mondiale, il abrite 3 233 sépultures de guerre. En 1956 on y a concentré les sépultures de nombreux petits cimetières des environs, et on y trouve à présent les restes de 25 644 soldats. Chaque pierre porte les noms de vingt soldats, avec seulement leur grade et les dates de leur mort. L'artiste Willem Vermandere a évoqué ce cimetière dans son poème Vladslo.
 Le cimetière est administré par la Commission des sépultures de guerre allemande (Volksbund Deutsche Kriegsgräberfürsorge). Elle a également la charge des trois autres cimetières militaires allemands en Belgique : Langemark, Menin et Hooglede.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_de_Vladslo</t>
+          <t>Cimetière_militaire_allemand_de_Vladslo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Les parents en deuil</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière contient aussi une statue – Les parents en deuil – œuvre de Käthe Kollwitz. Sculptrice allemande connue[2], elle a dédié cette statue à son plus jeune fils, Pieter, tombé à Esen, non loin de là, le 23 octobre 1914. Les yeux du père sont fixés sur la neuvième pierre à partir de lui, c'est là qu'est écrit le nom de son fils.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière contient aussi une statue – Les parents en deuil – œuvre de Käthe Kollwitz. Sculptrice allemande connue, elle a dédié cette statue à son plus jeune fils, Pieter, tombé à Esen, non loin de là, le 23 octobre 1914. Les yeux du père sont fixés sur la neuvième pierre à partir de lui, c'est là qu'est écrit le nom de son fils.
 </t>
         </is>
       </c>
